--- a/paises.xlsx
+++ b/paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\anaconda3\content\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68451848-D081-4DF7-B3DF-3596AE8403D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A384209-5D57-4EAB-91A5-84F9951806A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11794483-7839-4F91-A037-017D98060703}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>latitud</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>pais_id</t>
+  </si>
+  <si>
+    <t>-81.6426644,4</t>
+  </si>
+  <si>
+    <t>-106.252478,4</t>
+  </si>
+  <si>
+    <t>-83.3895534,5</t>
+  </si>
+  <si>
+    <t>-88.3954577,6</t>
+  </si>
+  <si>
+    <t>-84.0673974,5</t>
+  </si>
+  <si>
+    <t>-58.0284717,7</t>
+  </si>
+  <si>
+    <t>-37.0544439</t>
+  </si>
+  <si>
+    <t>-35.4416283</t>
+  </si>
+  <si>
+    <t>4.5877586</t>
+  </si>
+  <si>
+    <t>-9.1304727</t>
+  </si>
+  <si>
+    <t>-1.3552379</t>
+  </si>
+  <si>
+    <t>-32.6005567</t>
   </si>
 </sst>
 </file>
@@ -122,7 +158,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,12 +475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE04E3-FFD2-48FC-8967-9C9754E7F480}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -471,11 +510,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>-816426644.39999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-370544439</v>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -488,11 +527,11 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>-106252478.40000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-354416283</v>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -505,11 +544,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>-833895534.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45877586</v>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -522,11 +561,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>-883954577.60000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-13552379</v>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -539,11 +578,11 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>-840673974.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-91304727</v>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -556,11 +595,11 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>-580284717.70000005</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-326005567</v>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
